--- a/finalp/src/main/webapp/resources/db/REPORT_CATEGORY.xlsx
+++ b/finalp/src/main/webapp/resources/db/REPORT_CATEGORY.xlsx
@@ -28,25 +28,25 @@
     <t xml:space="preserve">REPORT_CATEGORY_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">REPT-PROJ</t>
+    <t xml:space="preserve">R-PROJ</t>
   </si>
   <si>
     <t xml:space="preserve">프로젝트 신고</t>
   </si>
   <si>
-    <t xml:space="preserve">REPT-PROJREPLY</t>
+    <t xml:space="preserve">R-PROJR</t>
   </si>
   <si>
     <t xml:space="preserve">프로젝트 댓글 신고</t>
   </si>
   <si>
-    <t xml:space="preserve">REPT-BRD</t>
+    <t xml:space="preserve">R-BRD</t>
   </si>
   <si>
     <t xml:space="preserve">게시글 신고</t>
   </si>
   <si>
-    <t xml:space="preserve">REPT_BRDREPLY</t>
+    <t xml:space="preserve">R_BRDR</t>
   </si>
   <si>
     <t xml:space="preserve">게시글 댓글 신고</t>
@@ -152,13 +152,14 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2926829268293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2585365853659"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0390243902439"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2634146341463"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.29268292682927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
